--- a/fechamento_2021/fechamento_janeiro/esus_covisa_biofast_jan_12042022_abertos_Plan1.xlsx
+++ b/fechamento_2021/fechamento_janeiro/esus_covisa_biofast_jan_12042022_abertos_Plan1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_janeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030CA1E-D637-4390-BDE6-FBCC8CEDDD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{000AD5B9-0D08-4153-BB43-63AFD1F923ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
@@ -33824,8 +33824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BI182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fechamento_2021/fechamento_janeiro/esus_covisa_biofast_jan_12042022_abertos_Plan1.xlsx
+++ b/fechamento_2021/fechamento_janeiro/esus_covisa_biofast_jan_12042022_abertos_Plan1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000AD5B9-0D08-4153-BB43-63AFD1F923ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425CCC6A-17BF-4774-AAFE-400028BFB3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$2079</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Solicitado!$A$1:$BI$182</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4284,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL579"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33824,8 +33825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BI182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42188,6 +42189,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BI182" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>